--- a/第一题/output_var/GDP预测结果.xlsx
+++ b/第一题/output_var/GDP预测结果.xlsx
@@ -460,7 +460,7 @@
         <v>23776.6613</v>
       </c>
       <c r="C2" t="n">
-        <v>32.6066</v>
+        <v>39.9631</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23662.7807</v>
+        <v>23704.4068</v>
       </c>
       <c r="C3" t="n">
-        <v>24.7681</v>
+        <v>38.0967</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23648.4975</v>
+        <v>23727.7456</v>
       </c>
       <c r="C4" t="n">
-        <v>20.095</v>
+        <v>37.1041</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23557.8142</v>
+        <v>23622.1754</v>
       </c>
       <c r="C5" t="n">
-        <v>17.6685</v>
+        <v>37.2823</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23552.1515</v>
+        <v>23580.3285</v>
       </c>
       <c r="C6" t="n">
-        <v>16.6625</v>
+        <v>37.7934</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23683.6073</v>
+        <v>23678.6222</v>
       </c>
       <c r="C7" t="n">
-        <v>15.9299</v>
+        <v>37.996</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23900.1316</v>
+        <v>23800.5449</v>
       </c>
       <c r="C8" t="n">
-        <v>14.6594</v>
+        <v>37.8459</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24061.1003</v>
+        <v>23883.5118</v>
       </c>
       <c r="C9" t="n">
-        <v>13.8585</v>
+        <v>37.6477</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24167.6013</v>
+        <v>23945.3333</v>
       </c>
       <c r="C10" t="n">
-        <v>14.4062</v>
+        <v>37.5857</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24255.6982</v>
+        <v>23987.7888</v>
       </c>
       <c r="C11" t="n">
-        <v>16.9886</v>
+        <v>37.6244</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24331.6388</v>
+        <v>24021.392</v>
       </c>
       <c r="C12" t="n">
-        <v>20.9627</v>
+        <v>37.6568</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24394.7712</v>
+        <v>24062.4859</v>
       </c>
       <c r="C13" t="n">
-        <v>24.1082</v>
+        <v>37.6381</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24442.744</v>
+        <v>24114.0429</v>
       </c>
       <c r="C14" t="n">
-        <v>24.6569</v>
+        <v>37.5933</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24457.3734</v>
+        <v>24169.6813</v>
       </c>
       <c r="C15" t="n">
-        <v>23.0298</v>
+        <v>37.5576</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24441.1888</v>
+        <v>24224.6128</v>
       </c>
       <c r="C16" t="n">
-        <v>20.981</v>
+        <v>37.5394</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24410.3668</v>
+        <v>24277.6328</v>
       </c>
       <c r="C17" t="n">
-        <v>19.6881</v>
+        <v>37.5269</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24401.8266</v>
+        <v>24329.247</v>
       </c>
       <c r="C18" t="n">
-        <v>19.0674</v>
+        <v>37.5094</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24442.865</v>
+        <v>24380.4846</v>
       </c>
       <c r="C19" t="n">
-        <v>18.1573</v>
+        <v>37.4865</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24520.9767</v>
+        <v>24432.0503</v>
       </c>
       <c r="C20" t="n">
-        <v>16.7014</v>
+        <v>37.4627</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24612.6033</v>
+        <v>24484.0552</v>
       </c>
       <c r="C21" t="n">
-        <v>15.3322</v>
+        <v>37.4411</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24704.5849</v>
+        <v>24536.3622</v>
       </c>
       <c r="C22" t="n">
-        <v>14.9712</v>
+        <v>37.4211</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24793.4008</v>
+        <v>24588.8656</v>
       </c>
       <c r="C23" t="n">
-        <v>16.0263</v>
+        <v>37.401</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>24880.0916</v>
+        <v>24641.5016</v>
       </c>
       <c r="C24" t="n">
-        <v>18.0995</v>
+        <v>37.3801</v>
       </c>
     </row>
     <row r="25">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24965.7895</v>
+        <v>24694.2189</v>
       </c>
       <c r="C25" t="n">
-        <v>20.0911</v>
+        <v>37.3589</v>
       </c>
     </row>
   </sheetData>
